--- a/Cloud/evaluation_report.xlsx
+++ b/Cloud/evaluation_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Question Number</t>
+          <t>Name of Student</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Extracted Question</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Extracted Answer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Teacher Answer</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
@@ -448,15 +463,1981 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Perso
-op prc
-tNTLE
-tNTLE
-tingSe
-sk (C</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>ahmed</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>To represut numbers in computer memory
+This way the digits of the binary system
+Co, I) can be represented by the charged
+discharged of the memory cell
+Co)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2210244549</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>it is the language of computers and
+machines and is classified among
+have low language</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2210246305</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>- 2
+= -128
+To represent numbers in computer memory.
+This way the digits of the binary system (0, 1) can
+be represented by the charged-discharged state
+of the memory cell.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>22180862</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>To represut numbers in computer memory
+This way the digits of the binary system
+Co, I) can be represented by the charged
+discharged of the memory cell
+Co)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22180862</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>To represut numbers in computer memory
+This way the digits of the binary system
+Co, I) can be represented by the charged
+discharged of the memory cell
+Co)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>222028745</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Binary numbers, based on asystem of o's an l's, were
+adopted in computing for their alignment wiht the on off states
+of electronic circuts. This simplicity Facilifaties the desian of
+sits the tear logic inheren gate a matic choice timizing
+information representation and processing-ria electronic
+components.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2190203763</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>as a way
+to conVert Verbal logic
+statments into mathematical ones</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2190203832</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Because the computer calls in it's memory are
+either Charged, expressed as 1, or uncharged, expressed
+as o, and there is no other choice.
+Therefore, it is expressed in binary instead of decimal.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2200208062</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>a way to convert verbal Logical, statements into
+mathematical ones.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2200208074</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>because it easier for computers too proess, and it also tates
+takes up less space,
+it allows computers to store and manipulate data using
+asystem that can be turned con" or coffin,
+represente by digits «o» and«1"..</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2200208167</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>represented in bine complement
+A binary number is anumber expressed in the base 2
+or binary
+numi@ral System
+apositional notation with a radix
+physical implementation</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2200208426</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Awayto convert verbal logic statementsinto mathematical
+Ones.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2200208837</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>To expresslogical statementis &amp; operations
+To build electronie device they can
+process data Using binary signal$
++ Used by computer f digital device to
+implement &amp; manipulate ising electrical states
+suchas on zoft , high&amp;lowertruer fulse</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2200208961</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bmary num bers were Invented as a means of representing and
+Meansof representing ans marifutusing in formating an
+electroni devices, particuLerly computers devices
+Theuseof binary numbers incomputing systersis primarily
+dueto thefact that electronic devices, such as transis.tors
+and integreted circuits can easily represent and mamipulate
+to states typically referred ta ason and of or high an Lou</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2200208984</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Binary numbers were invented as away to represent
+logical statements using only tow symbols, oand 1
+as these are the only signals needed in logie
+desgining.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2200209067</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>To represent infomationand datain digital form,
+Where the electriccintpretation in comPuter
+can be representel by o, lo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2200209106</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>To represent information and datain digital
+form, where the electrical intretation incomputer
+can be represented by o,l, The binarysystem
+i5 the basis forcomputer arithmeticand
+Er Storage operations</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2200209410</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Because the compater accepts two answers,
+charged or uncharged.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2200210206</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>they're invented as away to represent information in digital
+system &amp; It's use in modren computing system.
+• EfRiciencyslessdata neededthan other systemlike decimal
+• Scalability: easy to grows torepresent complex data</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2210205816</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>They were invented because the computer cells had two states charged
+or discharged ,so a binary system had to be invented to communicate with the
+computer hence the "Machine language" name, we can say that the computer has a
+binary nature as well.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2210205819</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>- min = 2-1) = - (2) = - 128
+invented to represent number in computer, compute hus
+Cells either charged with ore uncharged with o</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2210244023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>It is used to represent numerical Value using two
+Symbols, usually Oand 1. you can also use any two
+Symbols or states, such as and 1, true /false, or on/off.
+The binary Counting system is used in practically all
+modern computers because it is easy to implement
+dirctly into logic getes and digital electronics.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2210244057</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The binary system was invented for computer because
+the computer contains capacitors, and capacitor i s
+either charged or uncharged, meaning there are only
+Ewo states. The number o was marked as empty
+and 1 as charged so that computer could understand
+our Language and we could deal with it.
+it is also called the machine Language</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2210244084</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Binary numbers are anatral choice For representing
+information in compuer systems because oFtheir dose
+velaionship to the underlying electronie cir curry</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2210244120</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Binary numbers were invenled as a way to represent
+and manipulate information in electronic
+devices, such as computers. The use of
+numbers is based in the lack that
+electronic
+androm porcus can only have two staless on
+represented by
+1 and o.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2210244181</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>to represent numbers in computer</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2210244185</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Binary numbers are more usefl hor electromics, it only
+need twodigits"" and "o", Our Devices Only
+deals with low and high voltages we Can Use "'" for
+high voltages anel'O" for Low voltages.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2210244208</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>bus are very convenient for digital
+digits
+stoplier to desian a device
+electrome
+use in this hintation by jent pretendia
+Seats vt in lint, that the china"
+voltage represts "1" and the "lown vottages represen
+"o
+•</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2210244280</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>any device has only two conditions, whether it's changed (1) or not (0) , so
+human canted to represent the deeinal numbersystem to a language
+chich the computer could do mathematical equation e aperation,
+pictures andsours, so mather them storag number que tore 1001
+and every bit in the computer language represent a specific number in decinal
+also, it's a better way to storage data so it fill less space.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2210244292</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>beausetney in the past found aproblem to representation
+thenumber incomputer memory but after+hat
+they Resolved problem by binary system torepresent
+the number incomputermemory for are bit:
+is (os for unchargedfield and Clforcharged field.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2210244303</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Because it gives each case onlyone of two
+volues (eithe lord" this is dore bydistinguishing
+between the two proce 55e58
+1- connect the power "oN "1
+2 - Cut the power "of"o</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2210244516</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Binary numbers were invented as away to represent
+information in digital System. The Concept of binary numbers
+dates back to ancient times, but their use in modern
+Computing Systems - The invention of binary numbers wes crucid
+to the development of digital computere a binary numbere have
+have several advantages such as they Can be represented using
+02) convert these numbers:
+Simple electronic components</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2210244521</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>to represent on and off or ones and
+Zeroes •</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2210244549</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>it is the language of computers and
+machines and is classified among
+have low language</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2210244687</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The signals in most present-day electronic
+digital systems use Just tow discrete value
+and are therefore said to be binary.
+A binary digit Called abit, has two Values
+O and 1.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2210244775</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>invented for converts logic verbal
+statements into a pure Mathematical one</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2210244842</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>To represent numbers inside the computer.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2210244934</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>the computer works by two cases
+con and offi so the Scientists given
+1 for the on and old zero for the off, so
+the computer can hundle it.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2210244935</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>He than invented the Mooren binaty number
+SysteM in 1689 as a way to convert verbal
+logic StateMents into matnematical ones
+and he used only zeros and one</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2210244935</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>He than invented the Mooren binaty number
+SysteM in 1689 as a way to convert verbal
+logic StateMents into matnematical ones
+and he used only zeros and one</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2210245040</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>as a way to convert verbal logie
+sbabements info malhemabical ones.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2210245105</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Binary numbers were invented to provide asimple and efficient way
+_to represent and manipulate information in computer system
+Computers operate using electronic switches that can be either on
+. or off, represented
+by the digits 1 and O in binary. By using this system
+system
+computers can pertorm calculations and store data more efficiently. Binary numbers
+alsa provid a reliable and precise way to represent and transmit information
+in digital communication, encryption, and other fields whore accuracy is crucial.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2210245129</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>computer
+invite to represent nuber in the</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2210245173</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Because the computer wurks through electrical
+circuits wich have only two Cases ; lon, offs,
+So the binary System was invented , where
+The value was given one in the Sense of open
+and Zero closed So that the computer can
+undrestand it.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2210245231</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>to find asystem that
+converts Logic verbal statments
+into a mathematid one
+with their two digit system (o-D this allowed for
+a direct representation of Logical values false and true.
+bindlynumbers are used in pebecause it uses switches
+and electrikel signals either on or off.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2210245519</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>we mainLy use bindry numbers to Allow us
+to Store data in eLctronic derises such as CPU and compute
+memory, althugh it did evist back in the seventeen th
+century by (GootPreid wilhen Lebniz) for redioious
+PurPoses</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2210245545</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>There are several benefitsfor using the binary s
+system • The most prominente
+of which is the simplicity of implementation, as it represents
+the use of only row numbers, which are o and land
+and the provision of space, ease of prectice, and
+increase the efficiency of digital joining</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2210245627</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Because of a Physical limitation, electronic devices
+use microtransistors, which are little switches that can
+either be on or off.
+So we use the binary system because it can represent
+the two states of the switch: an on switch means
+one, and an off switch means zero.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2210245709</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Bingry number are commonly used in computer
+architecture. Since the computer understands only
+the language of two digit's us and I's there froe the
+programming is done using a binary number system.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2210245756</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>invented for converts logical verbal statement
+in to apure mathematical one.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2210245773</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Obinary number were invented to provide asimple and
+efficient way to represent and process information in electronic
+system specifically computers also to express number and letter wit
+2 the binary system 's foundation on two digit o,1 aligns with
+the on loff states of electronic switches or circuits.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2210245884</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>They were invented for converts logical verbal statment
+in to apune mathematical one.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2210246004</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Binary numbers were inventesasa want o
+represent and manipulate inFormation in
+electonic devices, such as computers
+• Ineuseofbinary numbers isbased on
+the Fact that elatronic circlets can
+anly have two states son or aff repesented bon tando</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2210246068</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Binary numbers were invented as fundamentat
+system for computers torepresent and manipulate
+data using only two digital, o and 1 .
+This simplicity
+aligns with the electronic nuture of computer
+circuts, where onloff states easily correspond to these
+binary talues, Making computation and storage more</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2210246200</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>allows computers to store and manipulat
+data using a system of switches that can be
+turned on or off.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2210246233</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>The computer's memory consists of agroup of cells,
+and the cells have too stales :, charged (1)
+* uncharged (0)
+So the reason for invention of the binang System
+to expless numbers and letters with only tha
+dijit 0 8 1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2210246236</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Because they have abroplem to save numberon in the Compute!
+cause it only understand two numbers Oand l</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2210246237</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>They were invented to allow computers to
+Stone and manipulate data using a system
+o switches that cam be turned
+on and off.
+represented by the digits 0 and 1.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2210246242</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Q2) Why were binary numbers invented?</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>allows computers to srore and manipulate data
+using a system of switches that can be turned
+on orof Las away to convert verbal logic
+statements into mathematical ones</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Binary numbers form the foundation of digital systems, as they can
+represent the "on" and "off" states of electronic switches or the
+presence and absence of electrical signals. Binary numbers became
+essential for representing and manipulating data within computer
+systems, leading to the development of binary arithmetic, digital logic,
+and binary-coded representation of information.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
